--- a/Direcciones IP Laboratorio.xlsx
+++ b/Direcciones IP Laboratorio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Documents\EAFIT\2018-2\Telemática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\OneDrive - Universidad EAFIT\2018-2\Telemática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E778FCB-5FE3-4CD2-9874-4B6B2A05F70A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7E778FCB-5FE3-4CD2-9874-4B6B2A05F70A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{D35D1314-8B31-4DB1-97AA-F02DC84D0CC3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{09405DFE-9681-4E74-98A5-63A565BE617A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="35">
   <si>
     <t>/29</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Medellin_cable</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>SERVER</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,6 +1464,9 @@
       <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="J26" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1553,6 +1562,15 @@
       <c r="E30" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="F30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="7">
+        <v>141</v>
+      </c>
+      <c r="J30" s="7">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -2032,6 +2050,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:E15"/>
@@ -2040,11 +2063,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
